--- a/data/data_monitoreo_san_antonio_bajo.xlsx
+++ b/data/data_monitoreo_san_antonio_bajo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,11 +448,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GALLARDO CORTEZ MELISSA DEL CARMEN</t>
+          <t>ZAMORA TAMAY NEYSER IVAN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -462,47 +462,47 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MEDINA VALLEJOS ERICK LEONARDO</t>
+          <t>TELLO FERNANDEZ MILENY</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ZAMORA TAMAY NEYSER IVAN</t>
+          <t>VASQUEZ DIAZ LUZ ANGELICA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TELLO FERNANDEZ MILENY</t>
+          <t>ROJAS VASQUEZ FLOR NOELITA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VASQUEZ DIAZ LUZ ANGELICA</t>
+          <t>MEDINA VALLEJOS ERICK LEONARDO</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8">
@@ -512,67 +512,77 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOTO VALLEJOS ELSITA</t>
+          <t>SOTO VILLENA NILSON</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BENAVIDES SALAZAR IDELSA</t>
+          <t>SOTO VALLEJOS ELSITA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOTO VILLENA NILSON</t>
+          <t>RUIZ RUIZ LUZ MERI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VASQUEZ LUNA YUDITH</t>
+          <t>BENAVIDES MARRUFO ARACELI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BENAVIDES MARRUFO ARACELI</t>
+          <t>VASQUEZ LUNA YUDITH</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ROJAS VASQUEZ FLOR NOELITA</t>
+          <t>GALLARDO CORTEZ MELISSA DEL CARMEN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>BENAVIDES SALAZAR IDELSA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_san_antonio_bajo.xlsx
+++ b/data/data_monitoreo_san_antonio_bajo.xlsx
@@ -448,41 +448,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ZAMORA TAMAY NEYSER IVAN</t>
+          <t>RUIZ RUIZ LUZ MERI</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PÓSITO CHUGDEN NANIX</t>
+          <t>VASQUEZ DIAZ LUZ ANGELICA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TELLO FERNANDEZ MILENY</t>
+          <t>BENAVIDES MARRUFO ARACELI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VASQUEZ DIAZ LUZ ANGELICA</t>
+          <t>SOTO VALLEJOS ELSITA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
@@ -502,77 +502,77 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>48</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TIRADO PEREZ JEINER</t>
+          <t>ZAMORA TAMAY NEYSER IVAN</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOTO VILLENA NILSON</t>
+          <t>TELLO FERNANDEZ MILENY</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOTO VALLEJOS ELSITA</t>
+          <t>TIRADO PEREZ JEINER</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RUIZ RUIZ LUZ MERI</t>
+          <t>SOTO VILLENA NILSON</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BENAVIDES MARRUFO ARACELI</t>
+          <t>PÓSITO CHUGDEN NANIX</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>VASQUEZ LUNA YUDITH</t>
+          <t>GALLARDO CORTEZ MELISSA DEL CARMEN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GALLARDO CORTEZ MELISSA DEL CARMEN</t>
+          <t>VASQUEZ LUNA YUDITH</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_san_antonio_bajo.xlsx
+++ b/data/data_monitoreo_san_antonio_bajo.xlsx
@@ -448,41 +448,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RUIZ RUIZ LUZ MERI</t>
+          <t>MEDINA VALLEJOS ERICK LEONARDO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VASQUEZ DIAZ LUZ ANGELICA</t>
+          <t>ZAMORA TAMAY NEYSER IVAN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BENAVIDES MARRUFO ARACELI</t>
+          <t>SOTO VILLENA NILSON</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOTO VALLEJOS ELSITA</t>
+          <t>VASQUEZ DIAZ LUZ ANGELICA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -492,87 +492,87 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MEDINA VALLEJOS ERICK LEONARDO</t>
+          <t>PÓSITO CHUGDEN NANIX</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ZAMORA TAMAY NEYSER IVAN</t>
+          <t>SOTO VALLEJOS ELSITA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TELLO FERNANDEZ MILENY</t>
+          <t>TIRADO PEREZ JEINER</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TIRADO PEREZ JEINER</t>
+          <t>TELLO FERNANDEZ MILENY</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOTO VILLENA NILSON</t>
+          <t>VASQUEZ LUNA YUDITH</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>62</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PÓSITO CHUGDEN NANIX</t>
+          <t>GALLARDO CORTEZ MELISSA DEL CARMEN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GALLARDO CORTEZ MELISSA DEL CARMEN</t>
+          <t>RUIZ RUIZ LUZ MERI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VASQUEZ LUNA YUDITH</t>
+          <t>BENAVIDES MARRUFO ARACELI</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_san_antonio_bajo.xlsx
+++ b/data/data_monitoreo_san_antonio_bajo.xlsx
@@ -448,31 +448,31 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MEDINA VALLEJOS ERICK LEONARDO</t>
+          <t>ZAMORA TAMAY NEYSER IVAN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ZAMORA TAMAY NEYSER IVAN</t>
+          <t>MEDINA VALLEJOS ERICK LEONARDO</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOTO VILLENA NILSON</t>
+          <t>SOTO VALLEJOS ELSITA</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
@@ -482,107 +482,107 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ROJAS VASQUEZ FLOR NOELITA</t>
+          <t>TIRADO PEREZ JEINER</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PÓSITO CHUGDEN NANIX</t>
+          <t>ROJAS VASQUEZ FLOR NOELITA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOTO VALLEJOS ELSITA</t>
+          <t>SOTO VILLENA NILSON</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TIRADO PEREZ JEINER</t>
+          <t>BENAVIDES MARRUFO ARACELI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TELLO FERNANDEZ MILENY</t>
+          <t>PÓSITO CHUGDEN NANIX</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>VASQUEZ LUNA YUDITH</t>
+          <t>TELLO FERNANDEZ MILENY</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GALLARDO CORTEZ MELISSA DEL CARMEN</t>
+          <t>VASQUEZ LUNA YUDITH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RUIZ RUIZ LUZ MERI</t>
+          <t>GALLARDO CORTEZ MELISSA DEL CARMEN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BENAVIDES MARRUFO ARACELI</t>
+          <t>BENAVIDES SALAZAR IDELSA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BENAVIDES SALAZAR IDELSA</t>
+          <t>RUIZ RUIZ LUZ MERI</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_monitoreo_san_antonio_bajo.xlsx
+++ b/data/data_monitoreo_san_antonio_bajo.xlsx
@@ -452,57 +452,57 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MEDINA VALLEJOS ERICK LEONARDO</t>
+          <t>TIRADO PEREZ JEINER</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOTO VALLEJOS ELSITA</t>
+          <t>MEDINA VALLEJOS ERICK LEONARDO</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VASQUEZ DIAZ LUZ ANGELICA</t>
+          <t>ROJAS VASQUEZ FLOR NOELITA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TIRADO PEREZ JEINER</t>
+          <t>VASQUEZ DIAZ LUZ ANGELICA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ROJAS VASQUEZ FLOR NOELITA</t>
+          <t>SOTO VALLEJOS ELSITA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -542,27 +542,27 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VASQUEZ LUNA YUDITH</t>
+          <t>GALLARDO CORTEZ MELISSA DEL CARMEN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GALLARDO CORTEZ MELISSA DEL CARMEN</t>
+          <t>VASQUEZ LUNA YUDITH</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
